--- a/hot-deploy/partner/document/201308富桥新模块需求/20131124出货情况报表/需求变更20131124.xlsx
+++ b/hot-deploy/partner/document/201308富桥新模块需求/20131124出货情况报表/需求变更20131124.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求变更" sheetId="1" r:id="rId1"/>
@@ -53,14 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2011-51W</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>产品名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -101,102 +93,110 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>产品名称：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.076</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.077</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.078</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>130方盒床</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>140方盒床</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>150方盒床</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初数量</t>
+  </si>
+  <si>
+    <t>收入数量</t>
+  </si>
+  <si>
+    <t>结存数量</t>
+  </si>
+  <si>
+    <t>发出数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划出货日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>货号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZD19883</t>
+  </si>
+  <si>
+    <t>SZD21329</t>
+  </si>
+  <si>
+    <t>ECIS30941</t>
+  </si>
+  <si>
+    <t>SZD20417</t>
+  </si>
+  <si>
+    <t>SZD18254</t>
+  </si>
+  <si>
+    <t>SZ19372</t>
+  </si>
+  <si>
+    <t>出货数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初数量：上月期末数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入数量：本月进仓数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发出数量：本月出仓数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结存数量：本月期末数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本报表所有产品数量不需要按照板数计算，需要按照产品数量计算。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>2013年3月</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>产品名称：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.076</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.077</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.078</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>130方盒床</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>140方盒床</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>150方盒床</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初数量</t>
-  </si>
-  <si>
-    <t>收入数量</t>
-  </si>
-  <si>
-    <t>结存数量</t>
-  </si>
-  <si>
-    <t>发出数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划出货日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>货号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZD19883</t>
-  </si>
-  <si>
-    <t>SZD21329</t>
-  </si>
-  <si>
-    <t>ECIS30941</t>
-  </si>
-  <si>
-    <t>SZD20417</t>
-  </si>
-  <si>
-    <t>SZD18254</t>
-  </si>
-  <si>
-    <t>SZ19372</t>
-  </si>
-  <si>
-    <t>出货数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初数量：上月期末数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入数量：本月进仓数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发出数量：本月出仓数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>结存数量：本月期末数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>本报表所有产品数量不需要按照板数计算，需要按照产品数量计算。</t>
+    <t>月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年3月</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +352,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -407,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -875,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
@@ -915,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -935,7 +938,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -952,13 +955,13 @@
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
@@ -973,42 +976,42 @@
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>9</v>
+      <c r="B4" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="13">
         <v>1280</v>
@@ -1027,14 +1030,14 @@
       <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
+      <c r="B5" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="13">
         <v>1275</v>
@@ -1053,14 +1056,14 @@
       <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
+      <c r="B6" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="13">
         <v>4704</v>
@@ -1122,7 +1125,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1139,16 +1142,16 @@
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1162,7 +1165,7 @@
         <v>40895</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="13">
         <v>223</v>
@@ -1179,7 +1182,7 @@
         <v>40896</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="13">
         <v>23</v>
@@ -1196,7 +1199,7 @@
         <v>40897</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="13">
         <v>2323</v>
@@ -1213,7 +1216,7 @@
         <v>40898</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" s="13">
         <v>424</v>
@@ -1230,7 +1233,7 @@
         <v>40899</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" s="13">
         <v>242</v>
@@ -1247,7 +1250,7 @@
         <v>40900</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="13">
         <v>2323</v>
@@ -1258,32 +1261,32 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
